--- a/List Practice Problems - Sheet.xlsx
+++ b/List Practice Problems - Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javascript Complete\Notes\DSA - Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EACD457-C4DF-4BFE-B0FF-97E73F029DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E63D6-D6E9-4D1D-8A2F-F8081AF2D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -2044,8 +2044,8 @@
       <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>465</v>
+      <c r="D14" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="21">
@@ -2058,8 +2058,8 @@
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>465</v>
+      <c r="D15" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="21">
